--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33834.21920598826</v>
+        <v>6732033.113860268</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33834.21920598826</v>
+        <v>6732033.113860268</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13703.09134849217</v>
+        <v>823573.8176992359</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13703.09134849217</v>
+        <v>823573.8176992359</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113565394.992562</v>
+        <v>46355222.67802527</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10758.65737629094</v>
+        <v>1191641.80451297</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19835.70381493915</v>
+        <v>2104690.158754101</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28912.75025358735</v>
+        <v>3017738.512995233</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38464.61588882002</v>
+        <v>3900410.084618985</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48016.48152405265</v>
+        <v>4783081.656242738</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57202.29621624226</v>
+        <v>5695788.421304772</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66387.78695034065</v>
+        <v>6608557.541648211</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75574.18989990202</v>
+        <v>7521326.661991649</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84943.72658330832</v>
+        <v>8401250.755797323</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94351.27881248087</v>
+        <v>9288739.943210481</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103751.1119266136</v>
+        <v>10176770.45351211</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113151.0205163333</v>
+        <v>11064815.98345556</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122550.9291060531</v>
+        <v>11952861.513399</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131956.8350489488</v>
+        <v>12840183.21369642</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141365.1919206005</v>
+        <v>13727672.40110959</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27058,13 +27058,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>74</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
